--- a/tables/chapter_2/table_2.xlsx
+++ b/tables/chapter_2/table_2.xlsx
@@ -16,49 +16,121 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
-  <si>
-    <t>Morphological Characteristic</t>
-  </si>
-  <si>
-    <t>Unit measurement</t>
-  </si>
-  <si>
-    <t>Lamina weight</t>
-  </si>
-  <si>
-    <t>Grams (g)</t>
-  </si>
-  <si>
-    <t>Lamina length</t>
-  </si>
-  <si>
-    <t>Millimeters (mm)</t>
-  </si>
-  <si>
-    <t>Lamina thickness</t>
-  </si>
-  <si>
-    <t>Stipe mass</t>
-  </si>
-  <si>
-    <t>Stipe length</t>
-  </si>
-  <si>
-    <t>Stipe diameter</t>
-  </si>
-  <si>
-    <t>Number of digits</t>
-  </si>
-  <si>
-    <t>Count</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>Maximum temperature</t>
+  </si>
+  <si>
+    <t>max_temp</t>
+  </si>
+  <si>
+    <t>Minimum temperature</t>
+  </si>
+  <si>
+    <t>min_temp</t>
+  </si>
+  <si>
+    <t>Mean temperature</t>
+  </si>
+  <si>
+    <t>mean_temp</t>
+  </si>
+  <si>
+    <t>Range in temperature</t>
+  </si>
+  <si>
+    <t>temp_range</t>
+  </si>
+  <si>
+    <t>Standard deviation in temperature</t>
+  </si>
+  <si>
+    <t>sd_temp</t>
+  </si>
+  <si>
+    <t>Mean significant wave height</t>
+  </si>
+  <si>
+    <t>hs_mean</t>
+  </si>
+  <si>
+    <t>Maximum significant wave height</t>
+  </si>
+  <si>
+    <t>hs_max</t>
+  </si>
+  <si>
+    <t>Minimum significant wave height</t>
+  </si>
+  <si>
+    <t>hs_min</t>
+  </si>
+  <si>
+    <t>Standard deviation in swell height</t>
+  </si>
+  <si>
+    <t>hs_sd</t>
+  </si>
+  <si>
+    <t>tp_mean</t>
+  </si>
+  <si>
+    <t>Maximum wave period</t>
+  </si>
+  <si>
+    <t>tp_max</t>
+  </si>
+  <si>
+    <t>Minimum wave period</t>
+  </si>
+  <si>
+    <t>tp_min</t>
+  </si>
+  <si>
+    <t>Standard deviation in wave period</t>
+  </si>
+  <si>
+    <t>tp_sd</t>
+  </si>
+  <si>
+    <t>Median wave direction</t>
+  </si>
+  <si>
+    <t>dir_median</t>
+  </si>
+  <si>
+    <t>Mean wind speed</t>
+  </si>
+  <si>
+    <t>spw_mean</t>
+  </si>
+  <si>
+    <t>Standard deviation in wind speed</t>
+  </si>
+  <si>
+    <t>spw_sd</t>
+  </si>
+  <si>
+    <t>Median wind direction</t>
+  </si>
+  <si>
+    <t>dirw_median</t>
+  </si>
+  <si>
+    <t>Mean peak period</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +146,13 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
@@ -169,7 +248,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -473,81 +552,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A27:B35"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="1" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+    <row r="2" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="3" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+    <row r="4" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/tables/chapter_2/table_2.xlsx
+++ b/tables/chapter_2/table_2.xlsx
@@ -123,7 +123,7 @@
     <t>dirw_median</t>
   </si>
   <si>
-    <t>Mean peak period</t>
+    <t>Mean wave period</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -636,7 +636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
